--- a/Data/LRTP respirometry data from Tully Falls.xlsx
+++ b/Data/LRTP respirometry data from Tully Falls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjcuedu-my.sharepoint.com/personal/alejandro_delafuentepinero1_my_jcu_edu_au/Documents/PhD - Data/PHYSIOLOGICAL_DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjcuedu-my.sharepoint.com/personal/alejandro_delafuentepinero1_my_jcu_edu_au/Documents/PhD - projects/Ringtail - Mechanistic model - Wet Tropics/Ringtail_WT_Mechanistic_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{21B5A2F0-079A-8D48-9A2D-3AB775C09F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A7EA48F-7BE9-1D48-B256-B8933507D7B8}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{21B5A2F0-079A-8D48-9A2D-3AB775C09F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB399FEF-9DE6-A445-B380-8C98B7119BB8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VO2, CO2, Ewl Vs Temp Graph" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Respirometry data" sheetId="1" r:id="rId3"/>
     <sheet name="morphology" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Respirometry data'!$A$1:$M$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2983,6 +2986,980 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Respirometry data'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Possum temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Respirometry data'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Respirometry data'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>37.296900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.010005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.648300999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.998088000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.629300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.805495999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.248598000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.444127999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.858311999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.650415000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.222884000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.753576000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.581947</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.199264999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.167890999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.366222</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.474328</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.241076999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.198740000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.515872999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8E3-FA4F-97A2-430759E1833F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="637705504"/>
+        <c:axId val="637707776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="637705504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637707776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="637707776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637705504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
@@ -3184,6 +4161,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>31173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>831273</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>26554</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E41D20-F21B-77A7-0D9F-C0023492DB5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3540,10 +4553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3556,9 +4570,8 @@
     <col min="7" max="7" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -3801,7 +4814,7 @@
         <v>6.3656477987421387E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4030,7 +5043,7 @@
         <v>8.5502826086956522E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -4074,7 +5087,7 @@
         <v>9.6861847826086953E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -4118,7 +5131,7 @@
         <v>8.0928829787234036E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -4162,7 +5175,7 @@
         <v>1.5955595744680851E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -4206,7 +5219,7 @@
         <v>1.2914393617021278E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -4250,7 +5263,7 @@
         <v>1.2582797872340425E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -4470,7 +5483,7 @@
         <v>1.1490662857142857E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -4690,7 +5703,7 @@
         <v>1.2542459183673469E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>10</v>
       </c>
@@ -4908,7 +5921,7 @@
         <v>1.230238E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>11</v>
       </c>
@@ -5473,6 +6486,25 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M31" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="7"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="12"/>
+        <filter val="18"/>
+        <filter val="24"/>
+        <filter val="30"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P63">
     <sortCondition ref="A1:A63"/>
   </sortState>
@@ -5495,7 +6527,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
